--- a/metrics/R2/average time/Fallo Cardiaco.xlsx
+++ b/metrics/R2/average time/Fallo Cardiaco.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9481608417658902</v>
+        <v>0.9474388570693101</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9481608417658902</v>
+        <v>0.9474388570693101</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9481608417658902</v>
+        <v>0.9474388570693101</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.997067345684545</v>
+        <v>0.9970284737868719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9970746551599585</v>
+        <v>0.9970901734767281</v>
       </c>
       <c r="D3" t="n">
-        <v>0.997079068646734</v>
+        <v>0.9970268926310765</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.998527523259173</v>
+        <v>0.9984976313340758</v>
       </c>
       <c r="C4" t="n">
-        <v>0.998527523259173</v>
+        <v>0.9984976313340758</v>
       </c>
       <c r="D4" t="n">
-        <v>0.998527523259173</v>
+        <v>0.9984976313340758</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9900956381698381</v>
+        <v>0.990807211034741</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9907441122845427</v>
+        <v>0.9901850444874293</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9904546537802541</v>
+        <v>0.9913800040131188</v>
       </c>
     </row>
   </sheetData>
